--- a/excel/PHPExcel/print/ok.xlsx
+++ b/excel/PHPExcel/print/ok.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15015" windowHeight="10920"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="165">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广东省深圳市福田区上梅林11号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +331,462 @@
     <t>佳能相机1
 索尼手机1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E123456790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E123456791</t>
+  </si>
+  <si>
+    <t>E123456792</t>
+  </si>
+  <si>
+    <t>E123456793</t>
+  </si>
+  <si>
+    <t>E123456794</t>
+  </si>
+  <si>
+    <t>E123456795</t>
+  </si>
+  <si>
+    <t>E123456796</t>
+  </si>
+  <si>
+    <t>E123456797</t>
+  </si>
+  <si>
+    <t>E123456798</t>
+  </si>
+  <si>
+    <t>E123456799</t>
+  </si>
+  <si>
+    <t>E123456800</t>
+  </si>
+  <si>
+    <t>E123456801</t>
+  </si>
+  <si>
+    <t>E123456802</t>
+  </si>
+  <si>
+    <t>E123456803</t>
+  </si>
+  <si>
+    <t>E123456804</t>
+  </si>
+  <si>
+    <t>E123456805</t>
+  </si>
+  <si>
+    <t>E123456806</t>
+  </si>
+  <si>
+    <t>E123456807</t>
+  </si>
+  <si>
+    <t>E123456808</t>
+  </si>
+  <si>
+    <t>E123456809</t>
+  </si>
+  <si>
+    <t>E123456810</t>
+  </si>
+  <si>
+    <t>E123456811</t>
+  </si>
+  <si>
+    <t>E123456812</t>
+  </si>
+  <si>
+    <t>E123456813</t>
+  </si>
+  <si>
+    <t>E123456814</t>
+  </si>
+  <si>
+    <t>E123456815</t>
+  </si>
+  <si>
+    <t>E123456816</t>
+  </si>
+  <si>
+    <t>E123456817</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机2</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机3</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机4</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机5</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机6</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机7</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机8</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机9</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机10</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机11</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机12</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机13</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机14</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机15</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机16</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机17</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机18</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机19</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机20</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机21</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机22</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机23</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机24</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机25</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机26</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机27</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机28</t>
+  </si>
+  <si>
+    <t>佳能相机1
+索尼手机29</t>
+  </si>
+  <si>
+    <t>天河区12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河区13号</t>
+  </si>
+  <si>
+    <t>天河区14号</t>
+  </si>
+  <si>
+    <t>天河区15号</t>
+  </si>
+  <si>
+    <t>天河区16号</t>
+  </si>
+  <si>
+    <t>天河区17号</t>
+  </si>
+  <si>
+    <t>天河区18号</t>
+  </si>
+  <si>
+    <t>天河区19号</t>
+  </si>
+  <si>
+    <t>天河区20号</t>
+  </si>
+  <si>
+    <t>天河区21号</t>
+  </si>
+  <si>
+    <t>天河区22号</t>
+  </si>
+  <si>
+    <t>天河区23号</t>
+  </si>
+  <si>
+    <t>天河区24号</t>
+  </si>
+  <si>
+    <t>天河区25号</t>
+  </si>
+  <si>
+    <t>天河区26号</t>
+  </si>
+  <si>
+    <t>天河区27号</t>
+  </si>
+  <si>
+    <t>天河区28号</t>
+  </si>
+  <si>
+    <t>天河区29号</t>
+  </si>
+  <si>
+    <t>天河区30号</t>
+  </si>
+  <si>
+    <t>天河区31号</t>
+  </si>
+  <si>
+    <t>天河区32号</t>
+  </si>
+  <si>
+    <t>天河区33号</t>
+  </si>
+  <si>
+    <t>天河区34号</t>
+  </si>
+  <si>
+    <t>天河区35号</t>
+  </si>
+  <si>
+    <t>天河区36号</t>
+  </si>
+  <si>
+    <t>天河区37号</t>
+  </si>
+  <si>
+    <t>天河区38号</t>
+  </si>
+  <si>
+    <t>天河区39号</t>
+  </si>
+  <si>
+    <t>李四1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四3</t>
+  </si>
+  <si>
+    <t>李四4</t>
+  </si>
+  <si>
+    <t>李四5</t>
+  </si>
+  <si>
+    <t>李四6</t>
+  </si>
+  <si>
+    <t>李四7</t>
+  </si>
+  <si>
+    <t>李四8</t>
+  </si>
+  <si>
+    <t>李四9</t>
+  </si>
+  <si>
+    <t>李四10</t>
+  </si>
+  <si>
+    <t>李四11</t>
+  </si>
+  <si>
+    <t>李四12</t>
+  </si>
+  <si>
+    <t>李四13</t>
+  </si>
+  <si>
+    <t>李四14</t>
+  </si>
+  <si>
+    <t>李四15</t>
+  </si>
+  <si>
+    <t>李四16</t>
+  </si>
+  <si>
+    <t>李四17</t>
+  </si>
+  <si>
+    <t>李四18</t>
+  </si>
+  <si>
+    <t>李四19</t>
+  </si>
+  <si>
+    <t>李四20</t>
+  </si>
+  <si>
+    <t>李四21</t>
+  </si>
+  <si>
+    <t>李四22</t>
+  </si>
+  <si>
+    <t>李四23</t>
+  </si>
+  <si>
+    <t>李四24</t>
+  </si>
+  <si>
+    <t>李四25</t>
+  </si>
+  <si>
+    <t>李四26</t>
+  </si>
+  <si>
+    <t>李四27</t>
+  </si>
+  <si>
+    <t>李四28</t>
+  </si>
+  <si>
+    <t>李四29</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林13号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林14号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林15号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林16号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林17号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林18号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林19号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林20号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林21号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林22号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林23号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林24号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林25号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林26号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林27号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林28号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林29号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林30号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林31号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林32号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林33号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林34号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林35号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林36号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林37号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林38号</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区上梅林39号</t>
   </si>
 </sst>
 </file>
@@ -705,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -787,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -814,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="N2">
         <v>15922222222</v>
@@ -823,7 +1275,1407 @@
         <v>569999</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>123457</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>15811111112</v>
+      </c>
+      <c r="I3">
+        <v>521001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3">
+        <v>15922222223</v>
+      </c>
+      <c r="O3">
+        <v>569999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>123458</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>15811111113</v>
+      </c>
+      <c r="I4">
+        <v>521002</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4">
+        <v>15922222224</v>
+      </c>
+      <c r="O4">
+        <v>569999</v>
+      </c>
+      <c r="P4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>123459</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>15811111114</v>
+      </c>
+      <c r="I5">
+        <v>521003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5">
+        <v>15922222225</v>
+      </c>
+      <c r="O5">
+        <v>569999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="27">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>123460</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>15811111115</v>
+      </c>
+      <c r="I6">
+        <v>521004</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6">
+        <v>15922222226</v>
+      </c>
+      <c r="O6">
+        <v>569999</v>
+      </c>
+      <c r="P6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="27">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>123461</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>15811111116</v>
+      </c>
+      <c r="I7">
+        <v>521005</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7">
+        <v>15922222227</v>
+      </c>
+      <c r="O7">
+        <v>569999</v>
+      </c>
+      <c r="P7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>123462</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>15811111117</v>
+      </c>
+      <c r="I8">
+        <v>521006</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8">
+        <v>15922222228</v>
+      </c>
+      <c r="O8">
+        <v>569999</v>
+      </c>
+      <c r="P8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>123463</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>15811111118</v>
+      </c>
+      <c r="I9">
+        <v>521007</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9">
+        <v>15922222229</v>
+      </c>
+      <c r="O9">
+        <v>569999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>123464</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>15811111119</v>
+      </c>
+      <c r="I10">
+        <v>521008</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10">
+        <v>15922222230</v>
+      </c>
+      <c r="O10">
+        <v>569999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>123465</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>15811111120</v>
+      </c>
+      <c r="I11">
+        <v>521009</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11">
+        <v>15922222231</v>
+      </c>
+      <c r="O11">
+        <v>569999</v>
+      </c>
+      <c r="P11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>123466</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>15811111121</v>
+      </c>
+      <c r="I12">
+        <v>521010</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12">
+        <v>15922222232</v>
+      </c>
+      <c r="O12">
+        <v>569999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>123467</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>15811111122</v>
+      </c>
+      <c r="I13">
+        <v>521011</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13">
+        <v>15922222233</v>
+      </c>
+      <c r="O13">
+        <v>569999</v>
+      </c>
+      <c r="P13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>123468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>15811111123</v>
+      </c>
+      <c r="I14">
+        <v>521012</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14">
+        <v>15922222234</v>
+      </c>
+      <c r="O14">
+        <v>569999</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>123469</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>15811111124</v>
+      </c>
+      <c r="I15">
+        <v>521013</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15">
+        <v>15922222235</v>
+      </c>
+      <c r="O15">
+        <v>569999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>123470</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>15811111125</v>
+      </c>
+      <c r="I16">
+        <v>521014</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16">
+        <v>15922222236</v>
+      </c>
+      <c r="O16">
+        <v>569999</v>
+      </c>
+      <c r="P16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>123471</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>15811111126</v>
+      </c>
+      <c r="I17">
+        <v>521015</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17">
+        <v>15922222237</v>
+      </c>
+      <c r="O17">
+        <v>569999</v>
+      </c>
+      <c r="P17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>123472</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>15811111127</v>
+      </c>
+      <c r="I18">
+        <v>521016</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18">
+        <v>15922222238</v>
+      </c>
+      <c r="O18">
+        <v>569999</v>
+      </c>
+      <c r="P18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>123473</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>15811111128</v>
+      </c>
+      <c r="I19">
+        <v>521017</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19">
+        <v>15922222239</v>
+      </c>
+      <c r="O19">
+        <v>569999</v>
+      </c>
+      <c r="P19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>123474</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>15811111129</v>
+      </c>
+      <c r="I20">
+        <v>521018</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20">
+        <v>15922222240</v>
+      </c>
+      <c r="O20">
+        <v>569999</v>
+      </c>
+      <c r="P20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="27">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>123475</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>15811111130</v>
+      </c>
+      <c r="I21">
+        <v>521019</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21">
+        <v>15922222241</v>
+      </c>
+      <c r="O21">
+        <v>569999</v>
+      </c>
+      <c r="P21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>123476</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>15811111131</v>
+      </c>
+      <c r="I22">
+        <v>521020</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22">
+        <v>15922222242</v>
+      </c>
+      <c r="O22">
+        <v>569999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="27">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>123477</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>15811111132</v>
+      </c>
+      <c r="I23">
+        <v>521021</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23">
+        <v>15922222243</v>
+      </c>
+      <c r="O23">
+        <v>569999</v>
+      </c>
+      <c r="P23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>123478</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>15811111133</v>
+      </c>
+      <c r="I24">
+        <v>521022</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24">
+        <v>15922222244</v>
+      </c>
+      <c r="O24">
+        <v>569999</v>
+      </c>
+      <c r="P24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="27">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>123479</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>15811111134</v>
+      </c>
+      <c r="I25">
+        <v>521023</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25">
+        <v>15922222245</v>
+      </c>
+      <c r="O25">
+        <v>569999</v>
+      </c>
+      <c r="P25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="27">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>123480</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>15811111135</v>
+      </c>
+      <c r="I26">
+        <v>521024</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26">
+        <v>15922222246</v>
+      </c>
+      <c r="O26">
+        <v>569999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="27">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>123481</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>15811111136</v>
+      </c>
+      <c r="I27">
+        <v>521025</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27">
+        <v>15922222247</v>
+      </c>
+      <c r="O27">
+        <v>569999</v>
+      </c>
+      <c r="P27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="27">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>123482</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>15811111137</v>
+      </c>
+      <c r="I28">
+        <v>521026</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28">
+        <v>15922222248</v>
+      </c>
+      <c r="O28">
+        <v>569999</v>
+      </c>
+      <c r="P28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="27">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>123483</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>15811111138</v>
+      </c>
+      <c r="I29">
+        <v>521027</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29">
+        <v>15922222249</v>
+      </c>
+      <c r="O29">
+        <v>569999</v>
+      </c>
+      <c r="P29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="27">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>123484</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>15811111139</v>
+      </c>
+      <c r="I30">
+        <v>521028</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30">
+        <v>15922222250</v>
+      </c>
+      <c r="O30">
+        <v>569999</v>
+      </c>
+      <c r="P30" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
